--- a/chair_classification_results.xlsx
+++ b/chair_classification_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hskw1\git_space\repair_chair_gemini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SALES\work\git_space\repair_chair_gemini\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C2E85A-B827-4709-87AE-3BCA4A843336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4386D38-31AA-4B79-B324-C64C49CBF1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12930" yWindow="0" windowWidth="5950" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -231,9 +231,6 @@
   </si>
   <si>
     <t>NW264.jpg</t>
-  </si>
-  <si>
-    <t>C71.jpg</t>
   </si>
   <si>
     <t>No.C64.jpg</t>
@@ -1050,6 +1047,10 @@
     </r>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>C71.jpg</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -1067,12 +1068,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1394,17 +1397,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1034"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="A239" sqref="A239"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" customWidth="1"/>
-    <col min="2" max="26" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="2" max="26" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1418,9 +1421,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -1432,9 +1435,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -1446,9 +1449,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -1460,9 +1463,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -1474,9 +1477,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -1488,9 +1491,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>41</v>
@@ -1502,9 +1505,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>41</v>
@@ -1516,9 +1519,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>41</v>
@@ -1530,12 +1533,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
@@ -1544,23 +1547,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -1572,9 +1575,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>11</v>
@@ -1586,9 +1589,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>11</v>
@@ -1600,9 +1603,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>11</v>
@@ -1614,9 +1617,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
@@ -1628,9 +1631,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>4</v>
@@ -1642,9 +1645,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>11</v>
@@ -1656,9 +1659,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>11</v>
@@ -1670,9 +1673,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>11</v>
@@ -1684,9 +1687,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -1698,52 +1701,52 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
@@ -1754,9 +1757,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>9</v>
@@ -1768,7 +1771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>59</v>
       </c>
@@ -1782,9 +1785,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>11</v>
@@ -1796,9 +1799,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -1810,9 +1813,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>4</v>
@@ -1824,12 +1827,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>5</v>
@@ -1838,9 +1841,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>11</v>
@@ -1852,9 +1855,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>9</v>
@@ -1866,9 +1869,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>11</v>
@@ -1880,23 +1883,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>4</v>
@@ -1908,9 +1911,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>4</v>
@@ -1922,177 +1925,177 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
+      <c r="B44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>9</v>
@@ -2104,9 +2107,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>9</v>
@@ -2118,12 +2121,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>10</v>
@@ -2132,12 +2135,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>10</v>
@@ -2146,82 +2149,82 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="C54" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="6" t="s">
+      <c r="C55" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="C57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B57" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B58" s="3" t="s">
+      <c r="C58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="5" t="s">
-        <v>165</v>
-      </c>
       <c r="B59" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>5</v>
@@ -2230,9 +2233,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>4</v>
@@ -2244,12 +2247,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>5</v>
@@ -2258,12 +2261,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>5</v>
@@ -2272,9 +2275,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>11</v>
@@ -2286,37 +2289,37 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="6" t="s">
+      <c r="B65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>11</v>
@@ -2328,9 +2331,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>11</v>
@@ -2342,9 +2345,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>11</v>
@@ -2356,9 +2359,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>11</v>
@@ -2370,9 +2373,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>11</v>
@@ -2384,9 +2387,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>41</v>
@@ -2398,9 +2401,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>41</v>
@@ -2412,9 +2415,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>11</v>
@@ -2426,9 +2429,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>4</v>
@@ -2440,23 +2443,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>41</v>
@@ -2468,9 +2471,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>41</v>
@@ -2482,9 +2485,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>11</v>
@@ -2496,9 +2499,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>11</v>
@@ -2510,9 +2513,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>11</v>
@@ -2524,9 +2527,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>11</v>
@@ -2538,9 +2541,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>41</v>
@@ -2552,9 +2555,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>41</v>
@@ -2566,9 +2569,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>11</v>
@@ -2580,9 +2583,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>11</v>
@@ -2594,9 +2597,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>11</v>
@@ -2608,93 +2611,93 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="6" t="s">
+      <c r="B90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="6" t="s">
+      <c r="B91" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="6" t="s">
+      <c r="B92" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>11</v>
@@ -2706,9 +2709,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>11</v>
@@ -2720,9 +2723,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>9</v>
@@ -2734,12 +2737,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>10</v>
@@ -2748,9 +2751,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>9</v>
@@ -2762,12 +2765,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>5</v>
@@ -2776,9 +2779,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>9</v>
@@ -2790,107 +2793,107 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B100" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="5" t="s">
+      <c r="B105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="5" t="s">
+      <c r="B106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="D106" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>9</v>
@@ -2902,21 +2905,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>52</v>
       </c>
@@ -2930,23 +2933,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>9</v>
@@ -2958,9 +2961,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>9</v>
@@ -2972,7 +2975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
         <v>54</v>
       </c>
@@ -2986,7 +2989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>63</v>
       </c>
@@ -3000,7 +3003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>53</v>
       </c>
@@ -3014,7 +3017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>44</v>
       </c>
@@ -3028,7 +3031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>40</v>
       </c>
@@ -3042,12 +3045,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>10</v>
@@ -3056,7 +3059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>43</v>
       </c>
@@ -3070,12 +3073,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>10</v>
@@ -3084,7 +3087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>47</v>
       </c>
@@ -3098,12 +3101,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>10</v>
@@ -3112,9 +3115,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>9</v>
@@ -3126,9 +3129,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>9</v>
@@ -3140,9 +3143,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>4</v>
@@ -3154,66 +3157,66 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="6" t="s">
+      <c r="B128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B127" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="6" t="s">
+      <c r="B129" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="6" t="s">
-        <v>126</v>
-      </c>
       <c r="B130" s="2" t="s">
         <v>9</v>
       </c>
@@ -3224,7 +3227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
         <v>38</v>
       </c>
@@ -3238,7 +3241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>46</v>
       </c>
@@ -3252,12 +3255,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>5</v>
@@ -3266,7 +3269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>28</v>
       </c>
@@ -3280,12 +3283,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>5</v>
@@ -3294,9 +3297,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>11</v>
@@ -3308,7 +3311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
         <v>49</v>
       </c>
@@ -3322,7 +3325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
         <v>32</v>
       </c>
@@ -3336,9 +3339,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>4</v>
@@ -3350,7 +3353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
         <v>37</v>
       </c>
@@ -3364,9 +3367,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>4</v>
@@ -3378,9 +3381,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>9</v>
@@ -3392,9 +3395,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>9</v>
@@ -3406,9 +3409,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>9</v>
@@ -3420,9 +3423,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>9</v>
@@ -3434,9 +3437,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>9</v>
@@ -3448,7 +3451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
         <v>56</v>
       </c>
@@ -3462,7 +3465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
         <v>50</v>
       </c>
@@ -3476,9 +3479,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>9</v>
@@ -3490,9 +3493,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>9</v>
@@ -3504,9 +3507,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>9</v>
@@ -3518,7 +3521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>55</v>
       </c>
@@ -3532,12 +3535,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>5</v>
@@ -3546,7 +3549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
         <v>61</v>
       </c>
@@ -3560,7 +3563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
         <v>31</v>
       </c>
@@ -3574,7 +3577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
         <v>19</v>
       </c>
@@ -3588,7 +3591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
         <v>36</v>
       </c>
@@ -3602,7 +3605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
         <v>29</v>
       </c>
@@ -3616,9 +3619,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>11</v>
@@ -3630,9 +3633,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>11</v>
@@ -3644,9 +3647,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>4</v>
@@ -3658,23 +3661,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>11</v>
@@ -3686,7 +3689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
         <v>27</v>
       </c>
@@ -3700,9 +3703,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>11</v>
@@ -3714,9 +3717,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>4</v>
@@ -3728,9 +3731,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>4</v>
@@ -3742,7 +3745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>35</v>
       </c>
@@ -3756,9 +3759,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>41</v>
@@ -3770,9 +3773,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>41</v>
@@ -3784,9 +3787,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>11</v>
@@ -3798,9 +3801,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>11</v>
@@ -3812,9 +3815,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>41</v>
@@ -3826,9 +3829,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>41</v>
@@ -3837,10 +3840,10 @@
         <v>5</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>21</v>
       </c>
@@ -3854,9 +3857,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>4</v>
@@ -3868,7 +3871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
         <v>45</v>
       </c>
@@ -3882,7 +3885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
         <v>18</v>
       </c>
@@ -3896,7 +3899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
         <v>34</v>
       </c>
@@ -3910,7 +3913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
         <v>33</v>
       </c>
@@ -3924,7 +3927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
         <v>26</v>
       </c>
@@ -3938,7 +3941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
         <v>30</v>
       </c>
@@ -3952,7 +3955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
         <v>23</v>
       </c>
@@ -3966,7 +3969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
         <v>24</v>
       </c>
@@ -3980,7 +3983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
         <v>20</v>
       </c>
@@ -3994,7 +3997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
         <v>20</v>
       </c>
@@ -4005,10 +4008,10 @@
         <v>5</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
         <v>22</v>
       </c>
@@ -4022,7 +4025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
         <v>25</v>
       </c>
@@ -4036,12 +4039,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>5</v>
@@ -4050,9 +4053,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>4</v>
@@ -4064,63 +4067,63 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B191" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="5" t="s">
+      <c r="B192" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B192" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="B193" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
         <v>13</v>
       </c>
@@ -4134,7 +4137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
         <v>15</v>
       </c>
@@ -4148,12 +4151,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>10</v>
@@ -4162,7 +4165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
         <v>17</v>
       </c>
@@ -4176,7 +4179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
         <v>8</v>
       </c>
@@ -4190,12 +4193,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>10</v>
@@ -4204,7 +4207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
         <v>12</v>
       </c>
@@ -4218,12 +4221,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>10</v>
@@ -4232,7 +4235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
         <v>16</v>
       </c>
@@ -4246,7 +4249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
         <v>14</v>
       </c>
@@ -4260,9 +4263,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>9</v>
@@ -4274,9 +4277,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>9</v>
@@ -4288,9 +4291,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>9</v>
@@ -4302,12 +4305,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>10</v>
@@ -4316,9 +4319,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>4</v>
@@ -4330,12 +4333,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>10</v>
@@ -4344,37 +4347,37 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B211" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A212" s="6" t="s">
+      <c r="B212" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A213" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>11</v>
@@ -4386,9 +4389,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>11</v>
@@ -4400,9 +4403,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>41</v>
@@ -4414,12 +4417,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>10</v>
@@ -4428,9 +4431,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>9</v>
@@ -4442,7 +4445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
         <v>64</v>
       </c>
@@ -4456,12 +4459,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>5</v>
@@ -4470,7 +4473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
         <v>60</v>
       </c>
@@ -4484,12 +4487,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>5</v>
@@ -4498,65 +4501,65 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B222" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A223" s="6" t="s">
+      <c r="B224" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="B225" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A224" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A225" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B225" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A226" s="5" t="s">
-        <v>193</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>9</v>
@@ -4568,9 +4571,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>4</v>
@@ -4582,7 +4585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
         <v>42</v>
       </c>
@@ -4596,7 +4599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
         <v>39</v>
       </c>
@@ -4610,9 +4613,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>11</v>
@@ -4624,12 +4627,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>5</v>
@@ -4638,9 +4641,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>9</v>
@@ -4652,7 +4655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
         <v>62</v>
       </c>
@@ -4666,7 +4669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
         <v>51</v>
       </c>
@@ -4680,7 +4683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="6" t="s">
         <v>57</v>
       </c>
@@ -4694,7 +4697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="6" t="s">
         <v>58</v>
       </c>
@@ -4708,7 +4711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="6" t="s">
         <v>48</v>
       </c>
@@ -4722,803 +4725,803 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="239" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="240" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1015" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1016" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1017" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1018" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1019" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1020" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1021" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1022" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1026" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1027" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1028" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1029" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1030" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1031" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1032" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1033" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1034" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="238" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1015" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1016" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1017" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1018" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1019" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1020" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1021" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1022" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1026" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1027" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1028" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1029" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1030" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1031" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1032" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1033" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1034" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D237">
     <sortCondition ref="A2:A237"/>

--- a/chair_classification_results.xlsx
+++ b/chair_classification_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hskw1\git_space\repair_chair_gemini\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEDF6A4-03D1-4185-9917-810C725F6DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288BDB5F-C8FE-4670-90F4-F7DB0C0D65E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -925,9 +925,6 @@
     <t>KK237.jpg</t>
   </si>
   <si>
-    <t>LH290.jpg</t>
-  </si>
-  <si>
     <t>LH290A.jpg</t>
   </si>
   <si>
@@ -980,9 +977,6 @@
   </si>
   <si>
     <t>RF210.jpg</t>
-  </si>
-  <si>
-    <t>SB210.jpg</t>
   </si>
   <si>
     <t>SB280A.jpg</t>
@@ -1128,6 +1122,14 @@
   </si>
   <si>
     <t>#755_ボタン付.jpg</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LH290.jpg</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SB210.jpg</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1531,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="A269" sqref="A269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2604,7 +2606,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>182</v>
@@ -2634,7 +2636,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>182</v>
@@ -4718,7 +4720,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>292</v>
+        <v>358</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>180</v>
@@ -4733,7 +4735,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>180</v>
@@ -4823,7 +4825,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>12</v>
@@ -5009,7 +5011,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>4</v>
@@ -5024,7 +5026,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>4</v>
@@ -5294,7 +5296,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>180</v>
@@ -5309,7 +5311,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>180</v>
@@ -5324,7 +5326,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>180</v>
@@ -5339,7 +5341,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>4</v>
@@ -5354,7 +5356,7 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>4</v>
@@ -5371,7 +5373,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>8</v>
@@ -5386,7 +5388,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>180</v>
@@ -5401,7 +5403,7 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>8</v>
@@ -5446,7 +5448,7 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>4</v>
@@ -5461,7 +5463,7 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>4</v>
@@ -5491,7 +5493,7 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>4</v>
@@ -5506,7 +5508,7 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>4</v>
@@ -5521,7 +5523,7 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>180</v>
@@ -5536,7 +5538,7 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>4</v>
@@ -5581,7 +5583,7 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>311</v>
+        <v>359</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>4</v>
@@ -5596,7 +5598,7 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>4</v>
@@ -5641,7 +5643,7 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>8</v>
@@ -5656,7 +5658,7 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>8</v>
@@ -5808,7 +5810,7 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>4</v>
@@ -5853,7 +5855,7 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>4</v>
@@ -5868,7 +5870,7 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>182</v>
@@ -5883,7 +5885,7 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>182</v>
@@ -5898,7 +5900,7 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>180</v>
@@ -5913,7 +5915,7 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>180</v>
@@ -5928,7 +5930,7 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>182</v>
@@ -5943,7 +5945,7 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>182</v>
@@ -5960,7 +5962,7 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>4</v>
@@ -5977,7 +5979,7 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>4</v>
@@ -5992,7 +5994,7 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>182</v>
@@ -6007,7 +6009,7 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>182</v>
@@ -6022,7 +6024,7 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>8</v>
@@ -6052,7 +6054,7 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>4</v>
@@ -6067,7 +6069,7 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>4</v>
@@ -6142,7 +6144,7 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>4</v>
@@ -6159,7 +6161,7 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>182</v>
@@ -6174,7 +6176,7 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>4</v>
@@ -6189,7 +6191,7 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>182</v>
@@ -6204,7 +6206,7 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>8</v>
@@ -6249,7 +6251,7 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>8</v>
@@ -6264,7 +6266,7 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>180</v>
@@ -6279,7 +6281,7 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>180</v>
@@ -6294,7 +6296,7 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>180</v>
@@ -6309,7 +6311,7 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>182</v>
@@ -6324,7 +6326,7 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>182</v>
@@ -6339,7 +6341,7 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>182</v>
@@ -6354,7 +6356,7 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>182</v>
@@ -6369,7 +6371,7 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>180</v>
@@ -6384,7 +6386,7 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>183</v>
@@ -6401,7 +6403,7 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>4</v>
@@ -6418,7 +6420,7 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>184</v>
@@ -6433,7 +6435,7 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>180</v>
@@ -6448,7 +6450,7 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>4</v>
@@ -6673,7 +6675,7 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>4</v>
@@ -6688,7 +6690,7 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>180</v>
@@ -6703,7 +6705,7 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>180</v>
@@ -6718,7 +6720,7 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>180</v>
@@ -6733,7 +6735,7 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>180</v>
@@ -6748,7 +6750,7 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>180</v>
@@ -6763,7 +6765,7 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>180</v>
@@ -6778,7 +6780,7 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>180</v>
@@ -6793,7 +6795,7 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>4</v>
@@ -6808,7 +6810,7 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>4</v>

--- a/chair_classification_results.xlsx
+++ b/chair_classification_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hskw1\git_space\repair_chair_gemini\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288BDB5F-C8FE-4670-90F4-F7DB0C0D65E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA4BB87-FC19-4428-B909-D2F40930C8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1125,12 +1125,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>LH290.jpg</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>SB210.jpg</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LH290.jpg</t>
   </si>
 </sst>
 </file>
@@ -1533,7 +1532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
       <selection activeCell="A269" sqref="A269"/>
     </sheetView>
   </sheetViews>
@@ -4720,7 +4719,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>180</v>
@@ -5583,7 +5582,7 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>4</v>

--- a/chair_classification_results.xlsx
+++ b/chair_classification_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hskw1\git_space\repair_chair_gemini\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA4BB87-FC19-4428-B909-D2F40930C8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF94A3D1-7002-41C4-A3B5-086415CA66BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1130,6 +1130,7 @@
   </si>
   <si>
     <t>LH290.jpg</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1532,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="A269" sqref="A269"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="A211" sqref="A211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>

--- a/chair_classification_results.xlsx
+++ b/chair_classification_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hskw1\git_space\repair_chair_gemini\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF94A3D1-7002-41C4-A3B5-086415CA66BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461FFA8E-C8EC-49A2-88FA-0518ACF396E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1533,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="A211" sqref="A211"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="A268" sqref="A268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>

--- a/chair_classification_results.xlsx
+++ b/chair_classification_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hskw1\git_space\repair_chair_gemini\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461FFA8E-C8EC-49A2-88FA-0518ACF396E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB7508B-3742-44BA-9D8D-9AB3E483973E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="360">
   <si>
     <t>ファイル名</t>
   </si>
@@ -1531,10 +1531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E349"/>
+  <dimension ref="A1:E350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="A268" sqref="A268"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2982,14 +2982,14 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>219</v>
+      <c r="A96" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>7</v>
@@ -2998,7 +2998,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>8</v>
@@ -3013,37 +3013,37 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E98" s="3"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E99" s="3"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>4</v>
@@ -3052,13 +3052,13 @@
         <v>5</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E100" s="3"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>4</v>
@@ -3067,13 +3067,13 @@
         <v>5</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E101" s="3"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>4</v>
@@ -3082,13 +3082,13 @@
         <v>5</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E102" s="3"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>4</v>
@@ -3097,13 +3097,13 @@
         <v>5</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E103" s="3"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>4</v>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>4</v>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>4</v>
@@ -3142,13 +3142,13 @@
         <v>5</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E106" s="3"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>4</v>
@@ -3157,13 +3157,13 @@
         <v>5</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E107" s="3"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>4</v>
@@ -3172,13 +3172,13 @@
         <v>5</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E108" s="3"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>4</v>
@@ -3187,16 +3187,16 @@
         <v>5</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E109" s="3"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>177</v>
+        <v>232</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>5</v>
@@ -3208,28 +3208,28 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E111" s="3"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>233</v>
+        <v>35</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>6</v>
@@ -3238,22 +3238,22 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>48</v>
+        <v>233</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E113" s="3"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>176</v>
+        <v>48</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>8</v>
@@ -3268,7 +3268,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>8</v>
@@ -3277,13 +3277,13 @@
         <v>10</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E115" s="3"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>8</v>
@@ -3298,7 +3298,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>8</v>
@@ -3313,7 +3313,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>8</v>
@@ -3328,13 +3328,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>6</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>53</v>
+        <v>238</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>8</v>
@@ -3358,13 +3358,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>239</v>
+        <v>53</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>6</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>8</v>
@@ -3382,13 +3382,13 @@
         <v>10</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E122" s="3"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>8</v>
@@ -3403,60 +3403,60 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" s="3"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B125" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C124" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E124" s="3"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="4" t="s">
+      <c r="C125" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" s="3"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B125" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E125" s="3">
+      <c r="B126" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E126" s="3"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>6</v>
@@ -3465,7 +3465,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>8</v>
@@ -3474,19 +3474,19 @@
         <v>5</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E128" s="3"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>7</v>
@@ -3495,7 +3495,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>8</v>
@@ -3504,13 +3504,13 @@
         <v>10</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E130" s="3"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>8</v>
@@ -3525,40 +3525,40 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E132" s="3"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>20</v>
+        <v>249</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E133" s="3"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>5</v>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>8</v>
@@ -3579,13 +3579,13 @@
         <v>5</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E135" s="3"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>8</v>
@@ -3600,10 +3600,10 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>5</v>
@@ -3615,28 +3615,28 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E138" s="3"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>251</v>
+        <v>75</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>6</v>
@@ -3645,10 +3645,10 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>5</v>
@@ -3660,7 +3660,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>180</v>
@@ -3669,19 +3669,19 @@
         <v>5</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E141" s="3"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>180</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>7</v>
@@ -3690,7 +3690,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>180</v>
@@ -3699,19 +3699,19 @@
         <v>10</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E143" s="3"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>180</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>6</v>
@@ -3720,22 +3720,22 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E145" s="3"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>182</v>
@@ -3744,16 +3744,16 @@
         <v>5</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E146" s="3"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>256</v>
+        <v>145</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>5</v>
@@ -3765,7 +3765,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>4</v>
@@ -3774,28 +3774,28 @@
         <v>5</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E148" s="3"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E149" s="3"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>180</v>
@@ -3810,13 +3810,13 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>6</v>
@@ -3825,7 +3825,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>4</v>
@@ -3834,13 +3834,13 @@
         <v>5</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E152" s="3"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>4</v>
@@ -3849,13 +3849,13 @@
         <v>5</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E153" s="3"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>4</v>
@@ -3864,92 +3864,90 @@
         <v>5</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E154" s="3"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>34</v>
+        <v>263</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E155" s="3"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E156" s="3"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B156" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E156" s="3"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" s="5" t="s">
+      <c r="B157" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E157" s="3"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="B157" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E157" s="3">
+      <c r="B158" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E158" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" s="2" t="s">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B158" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E158" s="3"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="4" t="s">
-        <v>266</v>
-      </c>
       <c r="B159" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E159" s="3">
-        <v>1</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E159" s="3"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>4</v>
@@ -3958,30 +3956,32 @@
         <v>10</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E160" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" s="2" t="s">
-        <v>268</v>
+      <c r="A161" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E161" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="E161" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>180</v>
@@ -3990,13 +3990,13 @@
         <v>5</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E162" s="3"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>27</v>
+        <v>269</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>180</v>
@@ -4005,13 +4005,13 @@
         <v>5</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E163" s="3"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>270</v>
+        <v>27</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>180</v>
@@ -4020,13 +4020,13 @@
         <v>5</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E164" s="3"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>63</v>
+        <v>270</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>180</v>
@@ -4035,13 +4035,13 @@
         <v>5</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E165" s="3"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>180</v>
@@ -4050,16 +4050,16 @@
         <v>5</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E166" s="3"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>271</v>
+        <v>170</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>5</v>
@@ -4071,22 +4071,22 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E168" s="3"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>4</v>
@@ -4095,31 +4095,31 @@
         <v>5</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E169" s="3"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E170" s="3"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>10</v>
@@ -4131,7 +4131,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>8</v>
@@ -4140,13 +4140,13 @@
         <v>10</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E172" s="3"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>8</v>
@@ -4161,25 +4161,25 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E174" s="3"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>10</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>8</v>
@@ -4206,10 +4206,10 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>10</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>180</v>
@@ -4236,7 +4236,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>180</v>
@@ -4251,28 +4251,28 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>162</v>
+        <v>283</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E180" s="3"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>7</v>
@@ -4281,13 +4281,13 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D182" s="3" t="s">
         <v>7</v>
@@ -4296,13 +4296,13 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>7</v>
@@ -4311,22 +4311,22 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E184" s="3"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>8</v>
@@ -4335,13 +4335,13 @@
         <v>10</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E185" s="3"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>284</v>
+        <v>160</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>8</v>
@@ -4356,13 +4356,13 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>110</v>
+        <v>284</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>7</v>
@@ -4371,28 +4371,28 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E188" s="3"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>6</v>
@@ -4401,13 +4401,13 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>38</v>
+        <v>179</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D190" s="3" t="s">
         <v>6</v>
@@ -4416,13 +4416,13 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D191" s="3" t="s">
         <v>6</v>
@@ -4431,25 +4431,25 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E192" s="3"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>5</v>
@@ -4461,22 +4461,22 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E194" s="3"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>180</v>
@@ -4485,19 +4485,19 @@
         <v>10</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E195" s="3"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>7</v>
@@ -4506,7 +4506,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>182</v>
@@ -4515,13 +4515,13 @@
         <v>5</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E197" s="3"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>182</v>
@@ -4536,101 +4536,101 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E199" s="3"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B199" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D199" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E199" s="3"/>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" s="4" t="s">
+      <c r="B200" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E200" s="3"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B200" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E200" s="3">
+      <c r="B201" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E201" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E201" s="3"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E202" s="3"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B202" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E202" s="3"/>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="5" t="s">
+      <c r="B203" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E203" s="3"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B203" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E203" s="3">
+      <c r="B204" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E204" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A204" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D204" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E204" s="3"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>4</v>
@@ -4639,13 +4639,13 @@
         <v>5</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E205" s="3"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>287</v>
+        <v>121</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>4</v>
@@ -4654,13 +4654,13 @@
         <v>5</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E206" s="3"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>4</v>
@@ -4669,19 +4669,19 @@
         <v>5</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E207" s="3"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D208" s="3" t="s">
         <v>7</v>
@@ -4690,25 +4690,25 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E209" s="3"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>5</v>
@@ -4720,10 +4720,10 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>359</v>
+        <v>291</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>5</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>292</v>
+        <v>359</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>180</v>
@@ -4744,13 +4744,13 @@
         <v>5</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E212" s="3"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>146</v>
+        <v>292</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>180</v>
@@ -4759,16 +4759,16 @@
         <v>5</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E213" s="3"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>5</v>
@@ -4780,7 +4780,7 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>12</v>
@@ -4789,160 +4789,160 @@
         <v>5</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E215" s="3"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E216" s="3"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E217" s="3"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B217" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D217" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E217" s="3"/>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" s="4" t="s">
+      <c r="B218" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E218" s="3"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="B218" s="3" t="s">
+      <c r="B219" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C218" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D218" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E218" s="3">
+      <c r="C219" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E219" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C219" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D219" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E219" s="3"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E220" s="3"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B220" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C220" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D220" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E220" s="3"/>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" s="3" t="s">
+      <c r="B221" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E221" s="3"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B221" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C221" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D221" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E221" s="3">
+      <c r="B222" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E222" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A222" s="2" t="s">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B222" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C222" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D222" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E222" s="3"/>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A223" s="3" t="s">
+      <c r="B223" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E223" s="3"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B223" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D223" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E223" s="3">
+      <c r="B224" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E224" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A224" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B224" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C224" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D224" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E224" s="3"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D225" s="3" t="s">
         <v>7</v>
@@ -4951,10 +4951,10 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>5</v>
@@ -4966,25 +4966,25 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>175</v>
+        <v>122</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E227" s="3"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>5</v>
@@ -4996,37 +4996,37 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E229" s="3"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>294</v>
+        <v>143</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E230" s="3"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>4</v>
@@ -5041,7 +5041,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>101</v>
+        <v>295</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>4</v>
@@ -5056,7 +5056,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>4</v>
@@ -5071,7 +5071,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>4</v>
@@ -5080,16 +5080,16 @@
         <v>5</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E234" s="3"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>5</v>
@@ -5101,7 +5101,7 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>182</v>
@@ -5116,22 +5116,22 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>8</v>
+        <v>182</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E237" s="3"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>36</v>
+        <v>159</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>8</v>
@@ -5140,28 +5140,28 @@
         <v>5</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E238" s="3"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>182</v>
+        <v>8</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E239" s="3"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>182</v>
@@ -5170,58 +5170,58 @@
         <v>5</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E240" s="3"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E241" s="3"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E242" s="3"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E243" s="3"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>12</v>
@@ -5230,22 +5230,22 @@
         <v>5</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E244" s="3"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A245" s="6" t="s">
-        <v>172</v>
+      <c r="A245" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E245" s="3"/>
     </row>
@@ -5254,7 +5254,7 @@
         <v>172</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>182</v>
+        <v>8</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>5</v>
@@ -5266,16 +5266,16 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="6" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>8</v>
+        <v>182</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E247" s="3"/>
     </row>
@@ -5284,7 +5284,7 @@
         <v>79</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>182</v>
+        <v>8</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>5</v>
@@ -5295,23 +5295,23 @@
       <c r="E248" s="3"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A249" s="2" t="s">
-        <v>296</v>
+      <c r="A249" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E249" s="3"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>180</v>
@@ -5326,7 +5326,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>180</v>
@@ -5335,66 +5335,66 @@
         <v>10</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E251" s="3"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E252" s="3"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B252" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D252" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E252" s="3"/>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A253" s="4" t="s">
+      <c r="B253" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E253" s="3"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B253" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C253" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D253" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E253" s="3">
+      <c r="B254" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E254" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A254" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B254" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C254" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D254" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E254" s="3"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D255" s="3" t="s">
         <v>6</v>
@@ -5403,13 +5403,13 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D256" s="3" t="s">
         <v>6</v>
@@ -5418,13 +5418,13 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>55</v>
+        <v>303</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D257" s="3" t="s">
         <v>6</v>
@@ -5433,7 +5433,7 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>4</v>
@@ -5442,28 +5442,28 @@
         <v>5</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E258" s="3"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>304</v>
+        <v>118</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E259" s="3"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>4</v>
@@ -5472,28 +5472,28 @@
         <v>10</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E260" s="3"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>167</v>
+        <v>305</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E261" s="3"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>306</v>
+        <v>167</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>4</v>
@@ -5502,34 +5502,34 @@
         <v>5</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E262" s="3"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E263" s="3"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D264" s="3" t="s">
         <v>6</v>
@@ -5538,10 +5538,10 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>5</v>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>134</v>
+        <v>309</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>4</v>
@@ -5568,7 +5568,7 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>4</v>
@@ -5577,13 +5577,13 @@
         <v>5</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E267" s="3"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>358</v>
+        <v>16</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>4</v>
@@ -5592,13 +5592,13 @@
         <v>5</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E268" s="3"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>310</v>
+        <v>358</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>4</v>
@@ -5607,13 +5607,13 @@
         <v>5</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E269" s="3"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>92</v>
+        <v>310</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>4</v>
@@ -5622,16 +5622,16 @@
         <v>5</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E270" s="3"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>5</v>
@@ -5643,13 +5643,13 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>311</v>
+        <v>112</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D272" s="3" t="s">
         <v>6</v>
@@ -5658,7 +5658,7 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>8</v>
@@ -5667,13 +5667,13 @@
         <v>10</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E273" s="3"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>58</v>
+        <v>312</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>8</v>
@@ -5682,37 +5682,37 @@
         <v>10</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E274" s="3"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E275" s="3"/>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A276" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B275" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C275" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D275" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E275" s="3"/>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A276" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="B276" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E276" s="3"/>
     </row>
@@ -5721,7 +5721,7 @@
         <v>124</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>10</v>
@@ -5733,10 +5733,10 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="6" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>10</v>
@@ -5751,7 +5751,7 @@
         <v>103</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>10</v>
@@ -5762,40 +5762,40 @@
       <c r="E279" s="3"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A280" s="4" t="s">
+      <c r="A280" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E280" s="3"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A281" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B280" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C280" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D280" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E280" s="3">
+      <c r="B281" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E281" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A281" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B281" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C281" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D281" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E281" s="3"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>182</v>
@@ -5804,34 +5804,34 @@
         <v>5</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E282" s="3"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>313</v>
+        <v>166</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E283" s="3"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>109</v>
+        <v>313</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D284" s="3" t="s">
         <v>6</v>
@@ -5840,7 +5840,7 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>182</v>
@@ -5849,34 +5849,34 @@
         <v>5</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E285" s="3"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>314</v>
+        <v>111</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E286" s="3"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D287" s="3" t="s">
         <v>6</v>
@@ -5885,7 +5885,7 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>182</v>
@@ -5894,84 +5894,82 @@
         <v>5</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E288" s="3"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E289" s="3"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E290" s="3"/>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A291" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B290" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C290" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D290" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E290" s="3"/>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A291" s="5" t="s">
-        <v>319</v>
-      </c>
       <c r="B291" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E291" s="3"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E292" s="3"/>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A293" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B292" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C292" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D292" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E292" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A293" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="B293" s="3" t="s">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E293" s="3">
         <v>1</v>
@@ -5979,7 +5977,7 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>4</v>
@@ -5988,28 +5986,30 @@
         <v>5</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E294" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="E294" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E295" s="3"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>182</v>
@@ -6018,34 +6018,34 @@
         <v>5</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E296" s="3"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>8</v>
+        <v>182</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E297" s="3"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>90</v>
+        <v>325</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D298" s="3" t="s">
         <v>6</v>
@@ -6054,7 +6054,7 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>356</v>
+        <v>90</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>4</v>
@@ -6069,7 +6069,7 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>4</v>
@@ -6084,10 +6084,10 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>98</v>
+        <v>326</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>5</v>
@@ -6099,7 +6099,7 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>8</v>
@@ -6108,78 +6108,78 @@
         <v>5</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E302" s="3"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E303" s="3"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E304" s="3"/>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A305" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B304" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C304" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D304" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E304" s="3"/>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A305" s="4" t="s">
+      <c r="B305" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E305" s="3"/>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A306" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="B305" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C305" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D305" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E305" s="3">
+      <c r="B306" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D306" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E306" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A306" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="B306" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C306" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D306" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E306" s="3"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="6" t="s">
         <v>328</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>5</v>
@@ -6190,11 +6190,11 @@
       <c r="E307" s="3"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A308" s="2" t="s">
-        <v>329</v>
+      <c r="A308" s="6" t="s">
+        <v>328</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>5</v>
@@ -6206,58 +6206,58 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>8</v>
+        <v>182</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E309" s="3"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
-        <v>144</v>
+        <v>330</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>182</v>
+        <v>8</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E310" s="3"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E311" s="3"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
-        <v>331</v>
+        <v>91</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D312" s="3" t="s">
         <v>6</v>
@@ -6266,22 +6266,22 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E313" s="3"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>180</v>
@@ -6290,19 +6290,19 @@
         <v>10</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E314" s="3"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>180</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D315" s="3" t="s">
         <v>6</v>
@@ -6311,10 +6311,10 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>5</v>
@@ -6326,7 +6326,7 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>182</v>
@@ -6335,13 +6335,13 @@
         <v>5</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E317" s="3"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>182</v>
@@ -6350,13 +6350,13 @@
         <v>5</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E318" s="3"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>182</v>
@@ -6365,31 +6365,31 @@
         <v>5</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E319" s="3"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E320" s="3"/>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A321" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B320" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C320" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D320" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E320" s="3"/>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A321" s="4" t="s">
-        <v>340</v>
-      </c>
       <c r="B321" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>5</v>
@@ -6397,51 +6397,51 @@
       <c r="D321" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E321" s="3">
-        <v>1</v>
-      </c>
+      <c r="E321" s="3"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>4</v>
+        <v>183</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E322" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A323" s="2" t="s">
-        <v>342</v>
+      <c r="A323" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>184</v>
+        <v>4</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E323" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="E323" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D324" s="3" t="s">
         <v>6</v>
@@ -6450,13 +6450,13 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D325" s="3" t="s">
         <v>6</v>
@@ -6465,22 +6465,22 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
-        <v>95</v>
+        <v>344</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E326" s="3"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>8</v>
@@ -6495,7 +6495,7 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>8</v>
@@ -6504,28 +6504,28 @@
         <v>10</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E328" s="3"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E329" s="3"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>180</v>
@@ -6534,16 +6534,16 @@
         <v>5</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E330" s="3"/>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>5</v>
@@ -6555,10 +6555,10 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>5</v>
@@ -6570,37 +6570,37 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E333" s="3"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E334" s="3"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>12</v>
@@ -6609,13 +6609,13 @@
         <v>5</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E335" s="3"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>12</v>
@@ -6624,13 +6624,13 @@
         <v>5</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E336" s="3"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>12</v>
@@ -6645,7 +6645,7 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>12</v>
@@ -6654,19 +6654,19 @@
         <v>5</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E338" s="3"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D339" s="3" t="s">
         <v>7</v>
@@ -6675,28 +6675,28 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
-        <v>345</v>
+        <v>123</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E340" s="3"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D341" s="3" t="s">
         <v>6</v>
@@ -6705,7 +6705,7 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>180</v>
@@ -6714,13 +6714,13 @@
         <v>5</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E342" s="3"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>180</v>
@@ -6729,13 +6729,13 @@
         <v>5</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E343" s="3"/>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>180</v>
@@ -6750,7 +6750,7 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>180</v>
@@ -6759,13 +6759,13 @@
         <v>5</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E345" s="3"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>180</v>
@@ -6774,13 +6774,13 @@
         <v>5</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E346" s="3"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>180</v>
@@ -6789,43 +6789,58 @@
         <v>5</v>
       </c>
       <c r="D347" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E347" s="3"/>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E348" s="3"/>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D349" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E349" s="3"/>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A350" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B349" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C349" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D349" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E349" s="3"/>
+      <c r="B350" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D350" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E350" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D349">
-    <sortCondition ref="A2:A349"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D350">
+    <sortCondition ref="A2:A350"/>
   </sortState>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/chair_classification_results.xlsx
+++ b/chair_classification_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hskw1\git_space\repair_chair_gemini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SALES\work\git_space\repair_chair_gemini\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB7508B-3742-44BA-9D8D-9AB3E483973E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BFECE1-9379-4621-9A62-0FCAFA568500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="360">
   <si>
     <t>ファイル名</t>
   </si>
@@ -1531,17 +1531,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E350"/>
+  <dimension ref="A1:E352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
+      <selection activeCell="A271" sqref="A271"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.81640625" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.77734375" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -2002,25 +2002,25 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>5</v>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>8</v>
+        <v>182</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>5</v>
@@ -2047,40 +2047,40 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>182</v>
+        <v>8</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>8</v>
+        <v>182</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>5</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>180</v>
@@ -2101,16 +2101,16 @@
         <v>5</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>5</v>
@@ -2122,25 +2122,25 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>5</v>
@@ -2152,54 +2152,54 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+      <c r="B42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="3">
+      <c r="B43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>8</v>
@@ -2208,93 +2208,93 @@
         <v>5</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>199</v>
+        <v>21</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
+      <c r="B47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="3">
+      <c r="B48" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="3"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>169</v>
+        <v>25</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>66</v>
+        <v>169</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>10</v>
@@ -2306,22 +2306,22 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>180</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E51" s="3"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>180</v>
@@ -2336,7 +2336,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>180</v>
@@ -2345,16 +2345,16 @@
         <v>5</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E53" s="3"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>5</v>
@@ -2366,10 +2366,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>8</v>
+        <v>182</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>5</v>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>200</v>
+        <v>61</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>8</v>
@@ -2390,28 +2390,28 @@
         <v>5</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E56" s="3"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>43</v>
+        <v>200</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>182</v>
+        <v>8</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>182</v>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>182</v>
@@ -2435,13 +2435,13 @@
         <v>5</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E59" s="3"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>182</v>
@@ -2450,13 +2450,13 @@
         <v>5</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E60" s="3"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>201</v>
+        <v>67</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>182</v>
@@ -2465,28 +2465,28 @@
         <v>5</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E61" s="3"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>12</v>
@@ -2495,16 +2495,16 @@
         <v>5</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E63" s="3"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>202</v>
+        <v>29</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>5</v>
@@ -2516,25 +2516,25 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E65" s="3"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>5</v>
@@ -2546,7 +2546,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>12</v>
@@ -2555,13 +2555,13 @@
         <v>5</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E67" s="3"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>42</v>
+        <v>205</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>12</v>
@@ -2570,13 +2570,13 @@
         <v>5</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E68" s="3"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>12</v>
@@ -2585,28 +2585,28 @@
         <v>5</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E69" s="3"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E70" s="3"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>357</v>
+        <v>44</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>182</v>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>84</v>
+        <v>357</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>182</v>
@@ -2630,13 +2630,13 @@
         <v>5</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E72" s="3"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>355</v>
+        <v>84</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>182</v>
@@ -2651,22 +2651,22 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>11</v>
+        <v>355</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E74" s="3"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>12</v>
@@ -2675,28 +2675,28 @@
         <v>5</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E75" s="3"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E76" s="3"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>207</v>
+        <v>64</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>182</v>
@@ -2705,13 +2705,13 @@
         <v>5</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E77" s="3"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>14</v>
+        <v>207</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>182</v>
@@ -2726,10 +2726,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>8</v>
+        <v>182</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>5</v>
@@ -2741,7 +2741,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>8</v>
@@ -2756,22 +2756,22 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>32</v>
+        <v>209</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>182</v>
+        <v>8</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E81" s="3"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>182</v>
@@ -2780,28 +2780,28 @@
         <v>5</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E82" s="3"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>210</v>
+        <v>41</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>8</v>
+        <v>182</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E83" s="3"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>26</v>
+        <v>210</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>8</v>
@@ -2810,13 +2810,13 @@
         <v>10</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E84" s="3"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>8</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>211</v>
+        <v>70</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>8</v>
@@ -2840,19 +2840,19 @@
         <v>10</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E86" s="3"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>86</v>
+        <v>211</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>6</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>212</v>
+        <v>86</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>8</v>
@@ -2870,19 +2870,19 @@
         <v>5</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E88" s="3"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>31</v>
+        <v>212</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>7</v>
@@ -2891,7 +2891,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>213</v>
+        <v>31</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>8</v>
@@ -2906,70 +2906,70 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E91" s="3"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E92" s="3"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E93" s="3"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E94" s="3"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="4" t="s">
-        <v>218</v>
-      </c>
       <c r="B95" s="3" t="s">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>10</v>
@@ -2977,16 +2977,14 @@
       <c r="D95" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E95" s="3">
-        <v>1</v>
-      </c>
+      <c r="E95" s="3"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>218</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>10</v>
@@ -2994,17 +2992,19 @@
       <c r="D96" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E96" s="3"/>
+      <c r="E96" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>219</v>
+      <c r="A97" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>7</v>
@@ -3013,7 +3013,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>8</v>
@@ -3028,37 +3028,37 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E99" s="3"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E100" s="3"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>4</v>
@@ -3067,13 +3067,13 @@
         <v>5</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E101" s="3"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>4</v>
@@ -3082,13 +3082,13 @@
         <v>5</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E102" s="3"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>4</v>
@@ -3097,13 +3097,13 @@
         <v>5</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E103" s="3"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>4</v>
@@ -3112,13 +3112,13 @@
         <v>5</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E104" s="3"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>4</v>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>4</v>
@@ -3148,7 +3148,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>4</v>
@@ -3157,13 +3157,13 @@
         <v>5</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E107" s="3"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>4</v>
@@ -3172,13 +3172,13 @@
         <v>5</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E108" s="3"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>4</v>
@@ -3187,13 +3187,13 @@
         <v>5</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E109" s="3"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>4</v>
@@ -3202,16 +3202,16 @@
         <v>5</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E110" s="3"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>177</v>
+        <v>232</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>5</v>
@@ -3223,28 +3223,28 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E112" s="3"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>233</v>
+        <v>35</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>6</v>
@@ -3253,22 +3253,22 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>48</v>
+        <v>233</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E114" s="3"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>176</v>
+        <v>48</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>8</v>
@@ -3283,7 +3283,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>8</v>
@@ -3292,13 +3292,13 @@
         <v>10</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E116" s="3"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>8</v>
@@ -3313,7 +3313,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>8</v>
@@ -3328,7 +3328,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>8</v>
@@ -3343,13 +3343,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>6</v>
@@ -3358,7 +3358,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>53</v>
+        <v>238</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>8</v>
@@ -3373,13 +3373,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>239</v>
+        <v>53</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>6</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>8</v>
@@ -3397,13 +3397,13 @@
         <v>10</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E123" s="3"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>8</v>
@@ -3418,60 +3418,60 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" s="3"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B126" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C125" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E125" s="3"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" s="4" t="s">
+      <c r="C126" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" s="3"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B126" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E126" s="3">
+      <c r="B127" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E127" s="3"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>6</v>
@@ -3480,7 +3480,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>8</v>
@@ -3489,19 +3489,19 @@
         <v>5</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E129" s="3"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>7</v>
@@ -3510,7 +3510,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>8</v>
@@ -3519,13 +3519,13 @@
         <v>10</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E131" s="3"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>8</v>
@@ -3540,40 +3540,40 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E133" s="3"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>20</v>
+        <v>249</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E134" s="3"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>5</v>
@@ -3585,7 +3585,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>8</v>
@@ -3594,13 +3594,13 @@
         <v>5</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E136" s="3"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>8</v>
@@ -3615,10 +3615,10 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>5</v>
@@ -3630,28 +3630,28 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E139" s="3"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>251</v>
+        <v>75</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>6</v>
@@ -3660,10 +3660,10 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>5</v>
@@ -3675,7 +3675,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>180</v>
@@ -3684,19 +3684,19 @@
         <v>5</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E142" s="3"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>180</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>7</v>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>180</v>
@@ -3714,19 +3714,19 @@
         <v>10</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E144" s="3"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>180</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>6</v>
@@ -3735,22 +3735,22 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E146" s="3"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>182</v>
@@ -3759,16 +3759,16 @@
         <v>5</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E147" s="3"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>256</v>
+        <v>145</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>5</v>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>4</v>
@@ -3789,28 +3789,28 @@
         <v>5</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E149" s="3"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E150" s="3"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>180</v>
@@ -3825,13 +3825,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>6</v>
@@ -3840,7 +3840,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>4</v>
@@ -3849,13 +3849,13 @@
         <v>5</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E153" s="3"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>4</v>
@@ -3864,13 +3864,13 @@
         <v>5</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E154" s="3"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>4</v>
@@ -3879,92 +3879,90 @@
         <v>5</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E155" s="3"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>34</v>
+        <v>263</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E156" s="3"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E157" s="3"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B157" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E157" s="3"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" s="5" t="s">
+      <c r="B158" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E158" s="3"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="B158" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E158" s="3">
+      <c r="B159" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E159" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="2" t="s">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B159" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E159" s="3"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" s="4" t="s">
-        <v>266</v>
-      </c>
       <c r="B160" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E160" s="3">
-        <v>1</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E160" s="3"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>4</v>
@@ -3973,30 +3971,32 @@
         <v>10</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E161" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A162" s="2" t="s">
-        <v>268</v>
+      <c r="A162" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E162" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="E162" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>180</v>
@@ -4005,13 +4005,13 @@
         <v>5</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E163" s="3"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>27</v>
+        <v>269</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>180</v>
@@ -4020,13 +4020,13 @@
         <v>5</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E164" s="3"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>270</v>
+        <v>27</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>180</v>
@@ -4035,13 +4035,13 @@
         <v>5</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E165" s="3"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>63</v>
+        <v>270</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>180</v>
@@ -4050,13 +4050,13 @@
         <v>5</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E166" s="3"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>180</v>
@@ -4065,16 +4065,16 @@
         <v>5</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E167" s="3"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>271</v>
+        <v>170</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>5</v>
@@ -4086,22 +4086,22 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E169" s="3"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>4</v>
@@ -4110,31 +4110,31 @@
         <v>5</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E170" s="3"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E171" s="3"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>10</v>
@@ -4146,7 +4146,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>8</v>
@@ -4155,13 +4155,13 @@
         <v>10</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E173" s="3"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>8</v>
@@ -4176,25 +4176,25 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E175" s="3"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>10</v>
@@ -4206,7 +4206,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>8</v>
@@ -4221,10 +4221,10 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>10</v>
@@ -4236,7 +4236,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>180</v>
@@ -4251,7 +4251,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>180</v>
@@ -4266,28 +4266,28 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>162</v>
+        <v>283</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E181" s="3"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D182" s="3" t="s">
         <v>7</v>
@@ -4296,13 +4296,13 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>7</v>
@@ -4311,13 +4311,13 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>7</v>
@@ -4326,22 +4326,22 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E185" s="3"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>8</v>
@@ -4350,13 +4350,13 @@
         <v>10</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E186" s="3"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>284</v>
+        <v>160</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>8</v>
@@ -4371,13 +4371,13 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>110</v>
+        <v>284</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D188" s="3" t="s">
         <v>7</v>
@@ -4386,28 +4386,28 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E189" s="3"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D190" s="3" t="s">
         <v>6</v>
@@ -4416,13 +4416,13 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>38</v>
+        <v>179</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D191" s="3" t="s">
         <v>6</v>
@@ -4431,13 +4431,13 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D192" s="3" t="s">
         <v>6</v>
@@ -4446,25 +4446,25 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E193" s="3"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>5</v>
@@ -4476,22 +4476,22 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E195" s="3"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>180</v>
@@ -4500,19 +4500,19 @@
         <v>10</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E196" s="3"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>7</v>
@@ -4521,7 +4521,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>182</v>
@@ -4530,13 +4530,13 @@
         <v>5</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E198" s="3"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>182</v>
@@ -4551,101 +4551,101 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E200" s="3"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B200" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E200" s="3"/>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="4" t="s">
+      <c r="B201" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E201" s="3"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B201" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E201" s="3">
+      <c r="B202" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E202" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E202" s="3"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E203" s="3"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B203" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E203" s="3"/>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A204" s="5" t="s">
+      <c r="B204" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E204" s="3"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B204" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D204" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E204" s="3">
+      <c r="B205" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E205" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A205" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C205" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D205" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E205" s="3"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>4</v>
@@ -4654,13 +4654,13 @@
         <v>5</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E206" s="3"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>287</v>
+        <v>121</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>4</v>
@@ -4669,13 +4669,13 @@
         <v>5</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E207" s="3"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>4</v>
@@ -4684,19 +4684,19 @@
         <v>5</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E208" s="3"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D209" s="3" t="s">
         <v>7</v>
@@ -4705,25 +4705,25 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E210" s="3"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>5</v>
@@ -4735,10 +4735,10 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>359</v>
+        <v>291</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>5</v>
@@ -4750,7 +4750,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>292</v>
+        <v>359</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>180</v>
@@ -4759,13 +4759,13 @@
         <v>5</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E213" s="3"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>146</v>
+        <v>292</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>180</v>
@@ -4774,16 +4774,16 @@
         <v>5</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E214" s="3"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>5</v>
@@ -4795,7 +4795,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>12</v>
@@ -4804,160 +4804,160 @@
         <v>5</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E216" s="3"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E217" s="3"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E218" s="3"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B218" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C218" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D218" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E218" s="3"/>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" s="4" t="s">
+      <c r="B219" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E219" s="3"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="B219" s="3" t="s">
+      <c r="B220" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C219" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D219" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E219" s="3">
+      <c r="C220" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E220" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A220" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B220" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C220" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D220" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E220" s="3"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E221" s="3"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B221" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C221" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D221" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E221" s="3"/>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A222" s="3" t="s">
+      <c r="B222" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E222" s="3"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B222" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C222" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D222" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E222" s="3">
+      <c r="B223" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E223" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A223" s="2" t="s">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B223" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D223" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E223" s="3"/>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A224" s="3" t="s">
+      <c r="B224" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E224" s="3"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B224" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C224" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D224" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E224" s="3">
+      <c r="B225" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E225" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A225" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B225" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C225" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D225" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E225" s="3"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D226" s="3" t="s">
         <v>7</v>
@@ -4966,10 +4966,10 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>5</v>
@@ -4981,25 +4981,25 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>175</v>
+        <v>122</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E228" s="3"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>5</v>
@@ -5011,37 +5011,37 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E230" s="3"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>294</v>
+        <v>143</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E231" s="3"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>4</v>
@@ -5056,7 +5056,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>101</v>
+        <v>295</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>4</v>
@@ -5071,7 +5071,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>4</v>
@@ -5086,7 +5086,7 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>4</v>
@@ -5095,16 +5095,16 @@
         <v>5</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E235" s="3"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>5</v>
@@ -5116,7 +5116,7 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>182</v>
@@ -5131,22 +5131,22 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>8</v>
+        <v>182</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E238" s="3"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>36</v>
+        <v>159</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>8</v>
@@ -5155,28 +5155,28 @@
         <v>5</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E239" s="3"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>182</v>
+        <v>8</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E240" s="3"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>182</v>
@@ -5185,58 +5185,58 @@
         <v>5</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E241" s="3"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E242" s="3"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E243" s="3"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E244" s="3"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>12</v>
@@ -5245,22 +5245,22 @@
         <v>5</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E245" s="3"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A246" s="6" t="s">
-        <v>172</v>
+      <c r="A246" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E246" s="3"/>
     </row>
@@ -5269,7 +5269,7 @@
         <v>172</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>182</v>
+        <v>8</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>5</v>
@@ -5281,16 +5281,16 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="6" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>8</v>
+        <v>182</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E248" s="3"/>
     </row>
@@ -5299,7 +5299,7 @@
         <v>79</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>182</v>
+        <v>8</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>5</v>
@@ -5310,23 +5310,23 @@
       <c r="E249" s="3"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A250" s="2" t="s">
-        <v>296</v>
+      <c r="A250" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E250" s="3"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>180</v>
@@ -5341,7 +5341,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>180</v>
@@ -5350,66 +5350,66 @@
         <v>10</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E252" s="3"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E253" s="3"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B253" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C253" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D253" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E253" s="3"/>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A254" s="4" t="s">
+      <c r="B254" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E254" s="3"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B254" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C254" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D254" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E254" s="3">
+      <c r="B255" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E255" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A255" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B255" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C255" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D255" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E255" s="3"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D256" s="3" t="s">
         <v>6</v>
@@ -5418,13 +5418,13 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D257" s="3" t="s">
         <v>6</v>
@@ -5433,13 +5433,13 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>55</v>
+        <v>303</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D258" s="3" t="s">
         <v>6</v>
@@ -5448,7 +5448,7 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>4</v>
@@ -5457,28 +5457,28 @@
         <v>5</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E259" s="3"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>304</v>
+        <v>118</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E260" s="3"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>4</v>
@@ -5487,28 +5487,28 @@
         <v>10</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E261" s="3"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>167</v>
+        <v>305</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E262" s="3"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>306</v>
+        <v>167</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>4</v>
@@ -5517,34 +5517,34 @@
         <v>5</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E263" s="3"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E264" s="3"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D265" s="3" t="s">
         <v>6</v>
@@ -5553,10 +5553,10 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>5</v>
@@ -5568,7 +5568,7 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>134</v>
+        <v>309</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>4</v>
@@ -5583,7 +5583,7 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>4</v>
@@ -5592,13 +5592,13 @@
         <v>5</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E268" s="3"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>358</v>
+        <v>16</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>4</v>
@@ -5607,13 +5607,13 @@
         <v>5</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E269" s="3"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>310</v>
+        <v>358</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>4</v>
@@ -5622,16 +5622,16 @@
         <v>5</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E270" s="3"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>92</v>
+        <v>358</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>5</v>
@@ -5643,28 +5643,28 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>112</v>
+        <v>310</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E272" s="3"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>311</v>
+        <v>92</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D273" s="3" t="s">
         <v>6</v>
@@ -5673,22 +5673,22 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>312</v>
+        <v>112</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E274" s="3"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>58</v>
+        <v>311</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>8</v>
@@ -5703,38 +5703,38 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E276" s="3"/>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A277" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E277" s="3"/>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A278" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B276" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C276" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D276" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E276" s="3"/>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A277" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B277" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C277" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D277" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E277" s="3"/>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A278" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="B278" s="3" t="s">
         <v>8</v>
       </c>
@@ -5742,13 +5742,13 @@
         <v>10</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E278" s="3"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="6" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>4</v>
@@ -5763,75 +5763,75 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E280" s="3"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A281" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B280" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C280" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D280" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E280" s="3"/>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A281" s="4" t="s">
+      <c r="B281" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E281" s="3"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A282" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E282" s="3"/>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A283" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B281" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C281" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D281" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E281" s="3">
+      <c r="B283" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E283" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A282" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B282" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C282" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D282" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E282" s="3"/>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A283" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B283" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C283" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D283" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E283" s="3"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>313</v>
+        <v>161</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D284" s="3" t="s">
         <v>6</v>
@@ -5840,7 +5840,7 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>182</v>
@@ -5849,34 +5849,34 @@
         <v>5</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E285" s="3"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>111</v>
+        <v>313</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E286" s="3"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>314</v>
+        <v>109</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D287" s="3" t="s">
         <v>6</v>
@@ -5885,7 +5885,7 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>315</v>
+        <v>111</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>182</v>
@@ -5894,31 +5894,31 @@
         <v>5</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E288" s="3"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E289" s="3"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>5</v>
@@ -5930,89 +5930,87 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E291" s="3"/>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A292" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E292" s="3"/>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A293" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B291" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C291" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D291" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E291" s="3"/>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A292" s="5" t="s">
+      <c r="B293" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E293" s="3"/>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A294" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B292" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C292" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D292" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E292" s="3"/>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A293" s="5" t="s">
+      <c r="B294" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E294" s="3"/>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A295" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B293" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C293" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D293" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E293" s="3">
+      <c r="B295" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D295" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E295" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A294" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B294" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C294" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D294" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E294" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A295" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B295" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C295" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D295" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E295" s="3"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>5</v>
@@ -6020,14 +6018,16 @@
       <c r="D296" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E296" s="3"/>
+      <c r="E296" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>5</v>
@@ -6039,13 +6039,13 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>8</v>
+        <v>182</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D298" s="3" t="s">
         <v>6</v>
@@ -6054,28 +6054,28 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>90</v>
+        <v>324</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E299" s="3"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D300" s="3" t="s">
         <v>6</v>
@@ -6084,7 +6084,7 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>326</v>
+        <v>90</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>4</v>
@@ -6099,10 +6099,10 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>98</v>
+        <v>356</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>5</v>
@@ -6114,25 +6114,25 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>59</v>
+        <v>326</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E303" s="3"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>5</v>
@@ -6144,99 +6144,99 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E305" s="3"/>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A306" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D306" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E306" s="3"/>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A307" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B305" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C305" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D305" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E305" s="3"/>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A306" s="4" t="s">
+      <c r="B307" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D307" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E307" s="3"/>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A308" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="B306" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C306" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D306" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E306" s="3">
+      <c r="B308" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D308" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E308" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A307" s="6" t="s">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A309" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B307" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C307" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D307" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E307" s="3"/>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A308" s="6" t="s">
+      <c r="B309" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E309" s="3"/>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A310" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B308" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C308" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D308" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E308" s="3"/>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A309" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B309" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C309" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D309" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E309" s="3"/>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A310" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="B310" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E310" s="3"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
-        <v>144</v>
+        <v>329</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>182</v>
@@ -6251,10 +6251,10 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
-        <v>91</v>
+        <v>330</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>5</v>
@@ -6266,40 +6266,40 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
-        <v>331</v>
+        <v>144</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>8</v>
+        <v>182</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E313" s="3"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>332</v>
+        <v>91</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>180</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E314" s="3"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>10</v>
@@ -6311,28 +6311,28 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>180</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E316" s="3"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D317" s="3" t="s">
         <v>6</v>
@@ -6341,22 +6341,22 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E318" s="3"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>182</v>
@@ -6371,7 +6371,7 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>182</v>
@@ -6386,89 +6386,89 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E321" s="3"/>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A322" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E322" s="3"/>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A323" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B321" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C321" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D321" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E321" s="3"/>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A322" s="4" t="s">
+      <c r="B323" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E323" s="3"/>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A324" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="B322" s="3" t="s">
+      <c r="B324" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C322" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D322" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E322" s="3">
+      <c r="C324" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E324" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A323" s="4" t="s">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A325" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="B323" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C323" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D323" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E323" s="3">
+      <c r="B325" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E325" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A324" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B324" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C324" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D324" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E324" s="3"/>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A325" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B325" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C325" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D325" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E325" s="3"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>4</v>
+        <v>184</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>5</v>
@@ -6480,37 +6480,37 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
-        <v>95</v>
+        <v>343</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E327" s="3"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
-        <v>93</v>
+        <v>344</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E328" s="3"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>8</v>
@@ -6519,19 +6519,19 @@
         <v>10</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E329" s="3"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D330" s="3" t="s">
         <v>7</v>
@@ -6540,13 +6540,13 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D331" s="3" t="s">
         <v>6</v>
@@ -6555,22 +6555,22 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E332" s="3"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>180</v>
@@ -6585,25 +6585,25 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E334" s="3"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>5</v>
@@ -6615,10 +6615,10 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>5</v>
@@ -6630,7 +6630,7 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>12</v>
@@ -6645,7 +6645,7 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>12</v>
@@ -6654,13 +6654,13 @@
         <v>5</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E338" s="3"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>12</v>
@@ -6669,73 +6669,73 @@
         <v>5</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E339" s="3"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E340" s="3"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
-        <v>345</v>
+        <v>113</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E341" s="3"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
-        <v>346</v>
+        <v>123</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E342" s="3"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E343" s="3"/>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>180</v>
@@ -6750,7 +6750,7 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>180</v>
@@ -6759,13 +6759,13 @@
         <v>5</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E345" s="3"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>180</v>
@@ -6774,13 +6774,13 @@
         <v>5</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E346" s="3"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>180</v>
@@ -6795,7 +6795,7 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>180</v>
@@ -6810,10 +6810,10 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>5</v>
@@ -6825,22 +6825,52 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D350" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E350" s="3"/>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A351" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D351" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E351" s="3"/>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A352" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B350" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C350" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D350" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E350" s="3"/>
+      <c r="B352" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D352" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E352" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D350">
-    <sortCondition ref="A2:A350"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D352">
+    <sortCondition ref="A2:A352"/>
   </sortState>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
